--- a/RESULTS/Week_13_Year_2024/(0) סידור מוכן.xlsx
+++ b/RESULTS/Week_13_Year_2024/(0) סידור מוכן.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orbac\Desktop\Shift-Schedule\Shift-Schedule\RESULTS\Week_13_Year_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0307AFD7-23C4-4DC2-8CB9-F219BC6C935D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D18D96-B979-48A0-83C1-972E71C5C331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="5160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,33 +85,12 @@
     <t>זיו</t>
   </si>
   <si>
-    <t>noon</t>
-  </si>
-  <si>
-    <t>noon.night</t>
-  </si>
-  <si>
-    <t>morning.noon.night</t>
-  </si>
-  <si>
-    <t>morning.night</t>
-  </si>
-  <si>
-    <t>morning.noon</t>
-  </si>
-  <si>
     <t xml:space="preserve">עמדה כניסה </t>
   </si>
   <si>
     <t>יניב</t>
   </si>
   <si>
-    <t>night</t>
-  </si>
-  <si>
-    <t>morning</t>
-  </si>
-  <si>
     <t>6:00-14:00</t>
   </si>
   <si>
@@ -146,13 +125,34 @@
   </si>
   <si>
     <t>הערות</t>
+  </si>
+  <si>
+    <t>a.b.c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>b.c</t>
+  </si>
+  <si>
+    <t>a.c</t>
+  </si>
+  <si>
+    <t>a.b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +198,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,12 +249,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF98FB98"/>
-        <bgColor rgb="FF98FB98"/>
       </patternFill>
     </fill>
     <fill>
@@ -313,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -356,11 +365,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,6 +379,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,62 +684,62 @@
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="2.5703125" customWidth="1"/>
     <col min="11" max="11" width="1.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="18" width="6.5703125" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="J1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="J1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -753,141 +764,148 @@
       <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="25">
+        <v>6</v>
+      </c>
+      <c r="U2" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="25">
+        <v>6</v>
+      </c>
+      <c r="U3" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R2" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T2">
-        <v>6</v>
-      </c>
-      <c r="U2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="J3" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="25">
+        <v>4</v>
+      </c>
+      <c r="U4" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3">
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
@@ -896,57 +914,60 @@
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="25">
+        <v>6</v>
+      </c>
+      <c r="U5" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5">
-        <v>6</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>20</v>
@@ -955,60 +976,72 @@
         <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="25">
+        <v>6</v>
+      </c>
+      <c r="U6" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="J7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="O6" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="25">
+        <v>6</v>
+      </c>
+      <c r="U7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1017,42 +1050,44 @@
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
       <c r="H8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8">
+        <v>22</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="25">
         <v>6</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1060,52 +1095,63 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="J9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>

--- a/RESULTS/Week_13_Year_2024/(0) סידור מוכן.xlsx
+++ b/RESULTS/Week_13_Year_2024/(0) סידור מוכן.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orbac\Desktop\Shift-Schedule\Shift-Schedule\RESULTS\Week_13_Year_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D18D96-B979-48A0-83C1-972E71C5C331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1271E6-FC04-4B0D-B131-B9E275BCF32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="5160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,12 +249,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF98FB98"/>
-        <bgColor rgb="FF98FB98"/>
       </patternFill>
     </fill>
     <fill>
@@ -322,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -365,9 +359,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,12 +378,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,48 +687,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="J1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -764,78 +757,78 @@
       <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="28" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="28" t="s">
+      <c r="Q2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="20">
         <v>6</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="J3" s="25" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="J3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="28" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28" t="s">
+      <c r="O3" s="23"/>
+      <c r="P3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="20">
         <v>6</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="20">
         <v>4</v>
       </c>
     </row>
@@ -864,36 +857,36 @@
       <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="28" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="20">
         <v>4</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="20">
         <v>4</v>
       </c>
     </row>
@@ -922,34 +915,34 @@
       <c r="H5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28" t="s">
+      <c r="O5" s="23"/>
+      <c r="P5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28" t="s">
+      <c r="R5" s="23"/>
+      <c r="S5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="20">
         <v>6</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="20">
         <v>3</v>
       </c>
     </row>
@@ -978,64 +971,64 @@
       <c r="H6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="28" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="28" t="s">
+      <c r="R6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="20">
         <v>6</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="J7" s="25" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="J7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="25">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="20">
         <v>6</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1052,36 +1045,36 @@
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="25">
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="20">
         <v>6</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="20">
         <v>6</v>
       </c>
     </row>
@@ -1100,20 +1093,20 @@
       <c r="H9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -1142,16 +1135,16 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
